--- a/Doc/DB_Projet/JDT_DePinaRyan.xlsx
+++ b/Doc/DB_Projet/JDT_DePinaRyan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Documents\GitHub\Vanguard-Fighter-s\Doc\JDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Documents\GitHub\Vanguard-Fighter-s\Doc\DB_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4927CBCF-34D9-4FCB-9569-9E322B55C5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C0CC51-B0C9-4899-9071-FF3B19AD2061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="29385" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Se mettre dans le docker pour avoir l'utilisation de la db sous phpmyadmin.</t>
+  </si>
+  <si>
+    <t>J'ai fait les explication de mes requêtes sql</t>
+  </si>
+  <si>
+    <t>j'ai vérifié l'étendue du projet pour avoir le moins d'erreurs possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai vu que j'avais mis des utilisateurs à la place de rôle pour le joueur et administrateur donc j'ai refais mes requêtes </t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1155,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>165</c:v>
@@ -1155,7 +1164,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,16 +2007,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.21518987341772153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.515625</c:v>
+                  <c:v>0.41772151898734178</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.359375</c:v>
+                  <c:v>0.36708860759493672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,8 +4201,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4248,7 +4257,7 @@
       <c r="B3" s="83"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>5 heures 20 minutes</v>
+        <v>6 heures 35 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4267,11 +4276,11 @@
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4740,28 +4749,46 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="str">
+      <c r="A25" s="74">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="40">
+        <v>45565</v>
+      </c>
       <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="42">
+        <v>30</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="G25" s="46"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="str">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="73">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="36">
+        <v>45565</v>
+      </c>
       <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="45"/>
+      <c r="D26" s="38">
+        <v>45</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="str">
@@ -10975,11 +11002,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C9" si="0">SUM(A6:B6)</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E6" s="21" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10987,11 +11014,11 @@
       </c>
       <c r="F6" s="50" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>0 h 40 min</v>
+        <v>1 h 25 min</v>
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0.125</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11028,7 +11055,7 @@
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.515625</v>
+        <v>0.41772151898734178</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11086,11 +11113,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E9" s="23" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11098,11 +11125,11 @@
       </c>
       <c r="F9" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 55 min</v>
+        <v>2 h 25 min</v>
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>0.359375</v>
+        <v>0.36708860759493672</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11123,22 +11150,22 @@
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>5 h 20 min</v>
+        <v>6 h 35 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>6.0606060606060608E-2</v>
+        <v>7.4810606060606064E-2</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>29</v>

--- a/Doc/DB_Projet/JDT_DePinaRyan.xlsx
+++ b/Doc/DB_Projet/JDT_DePinaRyan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Documents\GitHub\Vanguard-Fighter-s\Doc\DB_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C0CC51-B0C9-4899-9071-FF3B19AD2061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7858750-A949-4E30-9B3A-54B5F9EFD47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="6975" yWindow="165" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai vu que j'avais mis des utilisateurs à la place de rôle pour le joueur et administrateur donc j'ai refais mes requêtes </t>
+  </si>
+  <si>
+    <t>80% de projet</t>
+  </si>
+  <si>
+    <t>Refaire le Word pour qu'il soit plus comprehensible</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1161,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>165</c:v>
@@ -2007,16 +2013,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21518987341772153</c:v>
+                  <c:v>0.34042553191489361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41772151898734178</c:v>
+                  <c:v>0.35106382978723405</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36708860759493672</c:v>
+                  <c:v>0.30851063829787234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,8 +4207,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4257,7 +4263,7 @@
       <c r="B3" s="83"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>6 heures 35 minutes</v>
+        <v>7 heures 50 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4276,11 +4282,11 @@
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4791,27 +4797,43 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="str">
+      <c r="A27" s="74">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="B27" s="40">
+        <v>45572</v>
+      </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="28"/>
+      <c r="D27" s="42">
+        <v>45</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="str">
+      <c r="A28" s="73">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="36">
+        <v>45572</v>
+      </c>
       <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="27"/>
+      <c r="D28" s="38">
+        <v>30</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11002,11 +11024,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C9" si="0">SUM(A6:B6)</f>
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="E6" s="21" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11014,11 +11036,11 @@
       </c>
       <c r="F6" s="50" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>1 h 25 min</v>
+        <v>2 h 40 min</v>
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0.21518987341772153</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11055,7 +11077,7 @@
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.41772151898734178</v>
+        <v>0.35106382978723405</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11129,7 +11151,7 @@
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>0.36708860759493672</v>
+        <v>0.30851063829787234</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11150,22 +11172,22 @@
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>6 h 35 min</v>
+        <v>7 h 50 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>7.4810606060606064E-2</v>
+        <v>8.9015151515151519E-2</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>29</v>
@@ -11209,26 +11231,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0de33a34aa8934241a92d815be952b03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8468e718e17ddb77568e1238d457d43f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11423,26 +11425,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120E5154-B963-4118-ABE1-88566F42A07F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11459,4 +11462,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>